--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328275.64210851</v>
+        <v>1325730.465693027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10025088.53578911</v>
+        <v>10025088.5357891</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980817</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>158.9570464178202</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993359</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143946</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524994</v>
+        <v>67.61083201524983</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666943</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U11" t="n">
-        <v>209.4182421859761</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>141.9265450780017</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.669891325702</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452865</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736433</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500054</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861024</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413949</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691222</v>
+        <v>54.77549063691209</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712146</v>
+        <v>47.35522289712132</v>
       </c>
       <c r="S13" t="n">
-        <v>19.49452579234593</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032433</v>
+        <v>49.27444973707578</v>
       </c>
       <c r="U13" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161113</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791689</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201524984</v>
       </c>
       <c r="T14" t="n">
-        <v>53.8408088192038</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>18.09692231841939</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
         <v>344.6610088831276</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>101.8293544331765</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>29.9220391207496</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
         <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691215</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712138</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1822,13 +1822,13 @@
         <v>244.6349084326869</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y16" t="n">
         <v>177.0077235791688</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.0618795246039</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C17" t="n">
-        <v>314.6009296321308</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D17" t="n">
-        <v>304.0110794818063</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333849</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2040836028348</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G17" t="n">
-        <v>360.2497635145768</v>
+        <v>360.2497635145766</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>72.9655427604649</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3232098200253</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>74.59929298055076</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785363</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X17" t="n">
-        <v>319.0591385395924</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.5659765171769</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.1600180430606</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C19" t="n">
-        <v>116.5748589597511</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933566</v>
+        <v>97.94351087933553</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769248</v>
+        <v>95.76200050769235</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405455</v>
+        <v>94.74908588405442</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201515</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H19" t="n">
-        <v>94.08305277544409</v>
+        <v>94.08305277544396</v>
       </c>
       <c r="I19" t="n">
-        <v>45.6804582709614</v>
+        <v>45.68045827096129</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117064</v>
+        <v>38.26019053117052</v>
       </c>
       <c r="S19" t="n">
-        <v>139.0970631925652</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T19" t="n">
-        <v>168.8769871372925</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U19" t="n">
-        <v>235.5398760667362</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4656811849513</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W19" t="n">
-        <v>235.8510361977143</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0376932501605</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.9126912132181</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246039</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C20" t="n">
-        <v>314.6009296321308</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D20" t="n">
-        <v>304.0110794818062</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E20" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333849</v>
       </c>
       <c r="F20" t="n">
-        <v>356.2040836028347</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G20" t="n">
-        <v>360.2497635145767</v>
+        <v>360.2497635145766</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9358022484437</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>30.98670055213228</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>30.98670055213015</v>
       </c>
       <c r="W20" t="n">
-        <v>298.5690065785363</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X20" t="n">
-        <v>319.0591385395923</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.5659765171769</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.1600180430606</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C22" t="n">
-        <v>116.5748589597511</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933565</v>
+        <v>97.94351087933552</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769246</v>
+        <v>95.76200050769233</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405454</v>
+        <v>94.74908588405441</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201515</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H22" t="n">
-        <v>94.08305277544407</v>
+        <v>94.08305277544395</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68045827096137</v>
+        <v>45.68045827096127</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117061</v>
+        <v>38.26019053117051</v>
       </c>
       <c r="S22" t="n">
-        <v>139.0970631925652</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T22" t="n">
-        <v>168.8769871372925</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U22" t="n">
-        <v>235.5398760667361</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V22" t="n">
-        <v>201.4656811849513</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W22" t="n">
-        <v>235.8510361977143</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X22" t="n">
-        <v>175.0376932501604</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.9126912132181</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246039</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6009296321308</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D23" t="n">
-        <v>304.0110794818062</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E23" t="n">
-        <v>331.2584079333851</v>
+        <v>331.2584079333849</v>
       </c>
       <c r="F23" t="n">
-        <v>356.2040836028347</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G23" t="n">
-        <v>360.2497635145767</v>
+        <v>360.2497635145766</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9358022484437</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.51579964929915</v>
+        <v>58.51579964929901</v>
       </c>
       <c r="T23" t="n">
-        <v>153.2460080007434</v>
+        <v>153.2460080007433</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3232098200253</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V23" t="n">
-        <v>277.0802963312582</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W23" t="n">
-        <v>298.5690065785363</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X23" t="n">
-        <v>319.0591385395923</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.5659765171769</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.1600180430606</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C25" t="n">
-        <v>116.5748589597511</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933565</v>
+        <v>97.94351087933552</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769246</v>
+        <v>95.76200050769233</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405454</v>
+        <v>94.74908588405441</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201515</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H25" t="n">
-        <v>94.08305277544407</v>
+        <v>94.08305277544395</v>
       </c>
       <c r="I25" t="n">
-        <v>45.6804582709614</v>
+        <v>45.68045827096127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117064</v>
+        <v>38.26019053117051</v>
       </c>
       <c r="S25" t="n">
-        <v>139.0970631925652</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T25" t="n">
-        <v>168.8769871372925</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U25" t="n">
-        <v>235.5398760667361</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V25" t="n">
-        <v>201.4656811849513</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W25" t="n">
-        <v>235.8510361977143</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0376932501604</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.9126912132181</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800364</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145384</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,13 +4034,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515426</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.920347504027</v>
+        <v>1568.51740247346</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.954729324147</v>
+        <v>1568.51740247346</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324147</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>1064.163375486433</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573574</v>
+        <v>695.1743694573571</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628851</v>
+        <v>322.098818062885</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218363</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5075,16 +5075,16 @@
         <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.797625075918</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.025868566335</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="X11" t="n">
-        <v>2427.665722022899</v>
+        <v>2261.262776992331</v>
       </c>
       <c r="Y11" t="n">
-        <v>2079.523288807618</v>
+        <v>1913.12034377705</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180891</v>
+        <v>797.6353891180881</v>
       </c>
       <c r="C13" t="n">
-        <v>670.6961049507133</v>
+        <v>670.6961049507125</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989087</v>
+        <v>562.5763642989081</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770468</v>
+        <v>456.6601694770463</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396677</v>
+        <v>351.7671207396672</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749179</v>
+        <v>226.0611828749174</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533069</v>
+        <v>121.8408948533065</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543158</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783886</v>
+        <v>397.9442527783889</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020813</v>
+        <v>755.6652117020818</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.552954957888</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
         <v>2137.812375262355</v>
@@ -5221,28 +5221,28 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408124</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S13" t="n">
-        <v>2189.058833213836</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.289116543893</v>
+        <v>2009.289116543892</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430068</v>
+        <v>1762.183148430066</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984712</v>
+        <v>1549.495558984711</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708283</v>
+        <v>1302.075287708281</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570797</v>
+        <v>1116.082635570795</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.2869551877976</v>
+        <v>937.2869551877966</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.113595955774</v>
+        <v>1795.602445719545</v>
       </c>
       <c r="C14" t="n">
-        <v>1351.147977775894</v>
+        <v>1468.636827539665</v>
       </c>
       <c r="D14" t="n">
-        <v>1034.879177929674</v>
+        <v>1152.368027693446</v>
       </c>
       <c r="E14" t="n">
-        <v>691.0878240919615</v>
+        <v>808.5766738557328</v>
       </c>
       <c r="F14" t="n">
-        <v>322.098818062885</v>
+        <v>439.5876678266556</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,28 +5276,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3257.312051896798</v>
       </c>
       <c r="T14" t="n">
-        <v>3202.927396523865</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U14" t="n">
-        <v>2991.393818558233</v>
+        <v>3075.051483527996</v>
       </c>
       <c r="V14" t="n">
-        <v>2702.327829975194</v>
+        <v>2785.985494944957</v>
       </c>
       <c r="W14" t="n">
-        <v>2702.327829975194</v>
+        <v>2475.213738435374</v>
       </c>
       <c r="X14" t="n">
-        <v>2370.858970474645</v>
+        <v>2143.744878934825</v>
       </c>
       <c r="Y14" t="n">
-        <v>2022.716537259365</v>
+        <v>1795.602445719545</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>667.6378438997365</v>
+        <v>667.6378438997369</v>
       </c>
       <c r="C16" t="n">
-        <v>564.779910128851</v>
+        <v>540.6985597323613</v>
       </c>
       <c r="D16" t="n">
-        <v>456.6601694770466</v>
+        <v>432.5788190805569</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770466</v>
+        <v>326.6626242586951</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396675</v>
+        <v>296.438342318544</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749177</v>
+        <v>170.7324044537943</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543156</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
         <v>397.9442527783887</v>
@@ -5449,7 +5449,7 @@
         <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P16" t="n">
         <v>2137.812375262355</v>
@@ -5461,7 +5461,7 @@
         <v>2208.750273408125</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995482</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
         <v>1879.29157132554</v>
@@ -5476,10 +5476,10 @@
         <v>1172.07774248993</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0850903524438</v>
+        <v>986.0850903524441</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.2894099694449</v>
+        <v>807.2894099694454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1749.667938820803</v>
+        <v>1996.067739071756</v>
       </c>
       <c r="C17" t="n">
-        <v>1431.889222020671</v>
+        <v>1678.289022271624</v>
       </c>
       <c r="D17" t="n">
-        <v>1124.8073235542</v>
+        <v>1371.207123805153</v>
       </c>
       <c r="E17" t="n">
-        <v>790.2028710962355</v>
+        <v>1036.602671347188</v>
       </c>
       <c r="F17" t="n">
-        <v>430.4007664469075</v>
+        <v>676.8005666978604</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>312.9119166831366</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3251.903253164256</v>
       </c>
       <c r="U17" t="n">
-        <v>3123.259145023288</v>
+        <v>3251.903253164256</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.906323830813</v>
+        <v>2972.024165960965</v>
       </c>
       <c r="W17" t="n">
-        <v>2746.321468700978</v>
+        <v>2670.439310831131</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.039510580178</v>
+        <v>2670.439310831131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2085.083978744646</v>
+        <v>2331.483778995598</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.327079459851</v>
+        <v>733.3270794598501</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722236</v>
+        <v>615.5746966722228</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001674</v>
+        <v>516.6418574001667</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9125639580537</v>
+        <v>419.9125639580532</v>
       </c>
       <c r="F19" t="n">
-        <v>324.2064166004229</v>
+        <v>324.2064166004225</v>
       </c>
       <c r="G19" t="n">
-        <v>207.6873801154213</v>
+        <v>207.687380115421</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6539934735586</v>
+        <v>112.6539934735584</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7999913966069</v>
+        <v>161.799991396607</v>
       </c>
       <c r="K19" t="n">
-        <v>415.9524168629712</v>
+        <v>415.9524168629713</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6774578289553</v>
+        <v>782.6774578289555</v>
       </c>
       <c r="M19" t="n">
-        <v>1138.13945526753</v>
+        <v>1176.999745945993</v>
       </c>
       <c r="N19" t="n">
-        <v>1479.547831973395</v>
+        <v>1529.713074490881</v>
       </c>
       <c r="O19" t="n">
-        <v>1829.042673411296</v>
+        <v>1879.207915928782</v>
       </c>
       <c r="P19" t="n">
-        <v>2111.815416362444</v>
+        <v>2111.815416362441</v>
       </c>
       <c r="Q19" t="n">
-        <v>2239.590955032446</v>
+        <v>2239.590955032444</v>
       </c>
       <c r="R19" t="n">
-        <v>2200.944297930254</v>
+        <v>2200.944297930252</v>
       </c>
       <c r="S19" t="n">
-        <v>2060.44221389736</v>
+        <v>2060.442213897358</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607165</v>
+        <v>1889.859398607163</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873088</v>
+        <v>1651.940331873087</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.439643807481</v>
+        <v>1448.43964380748</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.2062739108</v>
+        <v>1210.206273910798</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.400523153062</v>
+        <v>1033.400523153061</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498112</v>
+        <v>863.7917441498101</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>1678.289022271624</v>
       </c>
       <c r="D20" t="n">
-        <v>1371.207123805153</v>
+        <v>1371.207123805154</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.602671347188</v>
+        <v>1036.602671347189</v>
       </c>
       <c r="F20" t="n">
-        <v>676.8005666978603</v>
+        <v>676.8005666978611</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9119166831367</v>
+        <v>312.9119166831366</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3294.306124081766</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3294.306124081766</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3294.306124081766</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
         <v>3294.306124081766</v>
       </c>
       <c r="W20" t="n">
-        <v>2992.721268951932</v>
+        <v>2992.721268951931</v>
       </c>
       <c r="X20" t="n">
         <v>2670.439310831131</v>
@@ -5823,22 +5823,22 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598509</v>
+        <v>733.3270794598499</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722235</v>
+        <v>615.5746966722226</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001673</v>
+        <v>516.6418574001665</v>
       </c>
       <c r="E22" t="n">
-        <v>419.9125639580537</v>
+        <v>419.9125639580531</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2064166004228</v>
+        <v>324.2064166004224</v>
       </c>
       <c r="G22" t="n">
-        <v>207.6873801154213</v>
+        <v>207.687380115421</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6539934735586</v>
+        <v>112.6539934735584</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>161.799991396607</v>
       </c>
       <c r="K22" t="n">
-        <v>415.9524168629713</v>
+        <v>377.0921261845064</v>
       </c>
       <c r="L22" t="n">
-        <v>782.6774578289555</v>
+        <v>743.8171671504905</v>
       </c>
       <c r="M22" t="n">
-        <v>1176.999745945993</v>
+        <v>1087.974212750039</v>
       </c>
       <c r="N22" t="n">
-        <v>1568.573365169345</v>
+        <v>1479.547831973392</v>
       </c>
       <c r="O22" t="n">
-        <v>1867.902964089759</v>
+        <v>1829.042673411293</v>
       </c>
       <c r="P22" t="n">
-        <v>2150.675707040906</v>
+        <v>2111.815416362441</v>
       </c>
       <c r="Q22" t="n">
-        <v>2239.590955032445</v>
+        <v>2239.590955032444</v>
       </c>
       <c r="R22" t="n">
-        <v>2200.944297930253</v>
+        <v>2200.944297930251</v>
       </c>
       <c r="S22" t="n">
-        <v>2060.442213897359</v>
+        <v>2060.442213897357</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607165</v>
+        <v>1889.859398607163</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873088</v>
+        <v>1651.940331873086</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.43964380748</v>
+        <v>1448.439643807479</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.206273910799</v>
+        <v>1210.206273910798</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.400523153062</v>
+        <v>1033.40052315306</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498111</v>
+        <v>863.7917441498099</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2009.635634624204</v>
+        <v>2009.635634624203</v>
       </c>
       <c r="C23" t="n">
         <v>1691.856917824071</v>
@@ -5975,43 +5975,43 @@
         <v>1050.170566899636</v>
       </c>
       <c r="F23" t="n">
-        <v>690.3684622503074</v>
+        <v>690.3684622503079</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355835</v>
+        <v>326.4798122355834</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463023</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463023</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J23" t="n">
-        <v>436.3647919640086</v>
+        <v>268.9591429436556</v>
       </c>
       <c r="K23" t="n">
-        <v>770.184165653855</v>
+        <v>602.778516633502</v>
       </c>
       <c r="L23" t="n">
-        <v>1221.218378902264</v>
+        <v>1053.812729881911</v>
       </c>
       <c r="M23" t="n">
-        <v>1754.750283574188</v>
+        <v>1587.344634553835</v>
       </c>
       <c r="N23" t="n">
-        <v>2301.52910063297</v>
+        <v>2567.096906780482</v>
       </c>
       <c r="O23" t="n">
-        <v>2804.501571512307</v>
+        <v>3301.922804561848</v>
       </c>
       <c r="P23" t="n">
-        <v>3421.446074491469</v>
+        <v>3696.697170919026</v>
       </c>
       <c r="Q23" t="n">
-        <v>3879.924277000457</v>
+        <v>3944.983532674708</v>
       </c>
       <c r="R23" t="n">
-        <v>4004.000599231512</v>
+        <v>4004.000599231511</v>
       </c>
       <c r="S23" t="n">
         <v>3944.893730898886</v>
@@ -6020,19 +6020,19 @@
         <v>3790.099783423388</v>
       </c>
       <c r="U23" t="n">
-        <v>3587.753106837504</v>
+        <v>3587.753106837503</v>
       </c>
       <c r="V23" t="n">
-        <v>3307.874019634213</v>
+        <v>3307.874019634212</v>
       </c>
       <c r="W23" t="n">
-        <v>3006.289164504379</v>
+        <v>3006.289164504378</v>
       </c>
       <c r="X23" t="n">
-        <v>2684.007206383579</v>
+        <v>2684.007206383577</v>
       </c>
       <c r="Y23" t="n">
-        <v>2345.051674548046</v>
+        <v>2345.051674548045</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>189.5891979452248</v>
       </c>
       <c r="H24" t="n">
-        <v>99.08730358309231</v>
+        <v>99.08730358309228</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463023</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J24" t="n">
         <v>173.7572814752475</v>
@@ -6087,7 +6087,7 @@
         <v>2420.979880439188</v>
       </c>
       <c r="Q24" t="n">
-        <v>2578.621438085787</v>
+        <v>2578.621438085788</v>
       </c>
       <c r="R24" t="n">
         <v>2578.477084678304</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122977</v>
+        <v>746.8949750122968</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246702</v>
+        <v>629.1425922246694</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526141</v>
+        <v>530.2097529526134</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595105005</v>
+        <v>433.4804595104999</v>
       </c>
       <c r="F25" t="n">
-        <v>337.7743121528696</v>
+        <v>337.7743121528692</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678681</v>
+        <v>221.2552756678678</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2218890260054</v>
+        <v>126.2218890260052</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463023</v>
+        <v>80.08001198463022</v>
       </c>
       <c r="J25" t="n">
-        <v>125.2026444315658</v>
+        <v>136.5075962705887</v>
       </c>
       <c r="K25" t="n">
-        <v>340.494779219468</v>
+        <v>340.494779219465</v>
       </c>
       <c r="L25" t="n">
-        <v>707.219820185452</v>
+        <v>707.2198201854492</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.542108302489</v>
+        <v>1101.542108302486</v>
       </c>
       <c r="N25" t="n">
-        <v>1493.115727525842</v>
+        <v>1493.115727525839</v>
       </c>
       <c r="O25" t="n">
-        <v>1842.610568963743</v>
+        <v>1842.61056896374</v>
       </c>
       <c r="P25" t="n">
-        <v>2125.38331191489</v>
+        <v>2125.383311914888</v>
       </c>
       <c r="Q25" t="n">
-        <v>2253.158850584893</v>
+        <v>2253.15885058489</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.5121934827</v>
+        <v>2214.512193482698</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449806</v>
+        <v>2074.010109449804</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.427294159612</v>
+        <v>1903.42729415961</v>
       </c>
       <c r="U25" t="n">
-        <v>1665.508227425535</v>
+        <v>1665.508227425533</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.007539359927</v>
+        <v>1462.007539359926</v>
       </c>
       <c r="W25" t="n">
-        <v>1223.774169463246</v>
+        <v>1223.774169463245</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.968418705508</v>
+        <v>1046.968418705507</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022578</v>
+        <v>877.3596397022568</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G27" t="n">
         <v>190.6561028572837</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6321,7 +6321,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6333,13 +6333,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
         <v>1540.005790936169</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6421,13 +6421,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991704</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890168</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3645.361240939448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6637,34 +6637,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,16 +6698,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N32" t="n">
         <v>2852.295579285458</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
         <v>190.6561028572837</v>
@@ -6777,10 +6777,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6807,13 +6807,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
         <v>1540.005790936169</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6938,10 +6938,10 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>810.872990474187</v>
+        <v>842.4067862271454</v>
       </c>
       <c r="L35" t="n">
-        <v>1261.907203722596</v>
+        <v>1706.9256018805</v>
       </c>
       <c r="M35" t="n">
         <v>2240.457506552424</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7172,25 +7172,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871311</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603403</v>
@@ -7333,7 +7333,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,49 +7397,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.596005545029</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424366</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871311</v>
+        <v>3477.955591919094</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3936.433794428082</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7494,19 +7494,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,52 +7634,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991709</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>727.1188267890172</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424366</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871311</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,31 +7722,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L46" t="n">
         <v>786.332686498217</v>
@@ -7822,7 +7822,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>204.9758093342889</v>
+        <v>204.97580933429</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528849</v>
+        <v>217.0161097528864</v>
       </c>
       <c r="M8" t="n">
-        <v>209.482905876212</v>
+        <v>209.4829058762136</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970528</v>
+        <v>208.2121457970544</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0787859308321</v>
+        <v>210.0787859308336</v>
       </c>
       <c r="P8" t="n">
-        <v>214.1468792646032</v>
+        <v>214.1468792646045</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.4747279587398</v>
+        <v>209.4747279587408</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.8313713882152</v>
+        <v>120.8313713882157</v>
       </c>
       <c r="K9" t="n">
-        <v>127.57579204122</v>
+        <v>127.5757920412208</v>
       </c>
       <c r="L9" t="n">
-        <v>124.7509506187517</v>
+        <v>124.7509506187528</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566806</v>
+        <v>126.0260831566818</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919405</v>
+        <v>114.8074317919417</v>
       </c>
       <c r="O9" t="n">
-        <v>127.4706082116718</v>
+        <v>127.4706082116729</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8347508378844</v>
+        <v>121.8347508378853</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.8667351544932</v>
+        <v>131.8667351544938</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918614</v>
+        <v>126.960795191862</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489671</v>
+        <v>130.5711623489677</v>
       </c>
       <c r="N10" t="n">
-        <v>119.5295770947134</v>
+        <v>119.529577094714</v>
       </c>
       <c r="O10" t="n">
-        <v>130.9231825035958</v>
+        <v>130.9231825035964</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2819166079669</v>
+        <v>131.2819166079674</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>234.195380709121</v>
       </c>
       <c r="P23" t="n">
-        <v>224.4142794161453</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>240.9710754359427</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550059</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>40.02214132148785</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>287.001785447392</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665421</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>40.02214132148788</v>
+        <v>71.87446026387016</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>28.65608477603951</v>
       </c>
       <c r="Q38" t="n">
-        <v>167.7369666428383</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.7369666428374</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>62.52018570663971</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550064</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.7369666428374</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.18391993538059</v>
+        <v>15.1839199353806</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477571</v>
+        <v>154.1490654299367</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>186.2276258275415</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>128.6975697661701</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.6975697661674</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.5002315474904</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>191.3213198675566</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>23.84053689252537</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.92207912925564</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691212</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484438</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.51579964929914</v>
+        <v>58.51579964929904</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007435</v>
+        <v>80.28046524027842</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V17" t="n">
-        <v>202.4810033507074</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.52909909716682</v>
+        <v>58.51579964929901</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2460080007434</v>
+        <v>153.2460080007433</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200253</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0802963312582</v>
+        <v>246.0935957791279</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>986557.3064164093</v>
+        <v>986557.3064164097</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841338.2045625178</v>
+        <v>841338.204562518</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855884.874879822</v>
+        <v>855884.8748798219</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938019.7111104639</v>
+        <v>938019.7111104641</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>938019.7111104639</v>
+        <v>938019.7111104641</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938019.7111104639</v>
+        <v>938019.7111104641</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
         <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532535.7677876514</v>
+        <v>532535.7677876512</v>
       </c>
       <c r="E2" t="n">
         <v>491027.2292293186</v>
@@ -26326,34 +26326,34 @@
         <v>491027.2292293186</v>
       </c>
       <c r="G2" t="n">
-        <v>499622.988962271</v>
+        <v>499622.9889622707</v>
       </c>
       <c r="H2" t="n">
-        <v>499622.9889622711</v>
+        <v>499622.9889622707</v>
       </c>
       <c r="I2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="J2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="K2" t="n">
         <v>533677.1504117838</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="K2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="M2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="O2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.0633885247</v>
+        <v>25312.06338852279</v>
       </c>
       <c r="E3" t="n">
-        <v>1133284.32114937</v>
+        <v>1133284.321149372</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.0258927606</v>
+        <v>7276.025892760657</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.85441502719</v>
+        <v>45099.85441502765</v>
       </c>
       <c r="J3" t="n">
-        <v>33793.44926224772</v>
+        <v>33793.4492622478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760606</v>
+        <v>7276.025892760663</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.0834021134</v>
+        <v>30304.08340211341</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>428043.2849223261</v>
+        <v>428043.2849223267</v>
       </c>
       <c r="E4" t="n">
-        <v>53005.67962103664</v>
+        <v>53005.67962103677</v>
       </c>
       <c r="F4" t="n">
-        <v>53005.6796210367</v>
+        <v>53005.67962103681</v>
       </c>
       <c r="G4" t="n">
-        <v>60548.34674708307</v>
+        <v>60548.34674708317</v>
       </c>
       <c r="H4" t="n">
-        <v>60548.34674708306</v>
+        <v>60548.34674708316</v>
       </c>
       <c r="I4" t="n">
-        <v>83346.80508056159</v>
+        <v>83346.80508056161</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.7615040985</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409847</v>
       </c>
       <c r="N4" t="n">
         <v>82806.76150409847</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.7615040985</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409848</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34271.91803061351</v>
+        <v>34271.91803061346</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047342</v>
       </c>
       <c r="F5" t="n">
         <v>77801.67147047342</v>
       </c>
       <c r="G5" t="n">
-        <v>78566.28174644653</v>
+        <v>78566.28174644652</v>
       </c>
       <c r="H5" t="n">
-        <v>78566.28174644655</v>
+        <v>78566.2817464465</v>
       </c>
       <c r="I5" t="n">
-        <v>88877.8823663061</v>
+        <v>88877.88236630609</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.9416748061</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62628.14044682679</v>
+        <v>62623.72686895879</v>
       </c>
       <c r="C6" t="n">
-        <v>62628.14044682691</v>
+        <v>62623.72686895879</v>
       </c>
       <c r="D6" t="n">
-        <v>44908.50144618709</v>
+        <v>44904.11151301851</v>
       </c>
       <c r="E6" t="n">
-        <v>-773064.4430115614</v>
+        <v>-773228.4811699577</v>
       </c>
       <c r="F6" t="n">
-        <v>360219.8781378084</v>
+        <v>360055.8399794144</v>
       </c>
       <c r="G6" t="n">
-        <v>353232.3345759808</v>
+        <v>353101.3570319438</v>
       </c>
       <c r="H6" t="n">
-        <v>360508.3604687413</v>
+        <v>360377.3829247044</v>
       </c>
       <c r="I6" t="n">
-        <v>316352.6085498889</v>
+        <v>316352.6085498887</v>
       </c>
       <c r="J6" t="n">
-        <v>327698.9979706319</v>
+        <v>327698.9979706318</v>
       </c>
       <c r="K6" t="n">
-        <v>361492.4472328796</v>
+        <v>361492.4472328793</v>
       </c>
       <c r="L6" t="n">
-        <v>354216.4213401192</v>
+        <v>354216.421340119</v>
       </c>
       <c r="M6" t="n">
-        <v>154303.8789408064</v>
+        <v>154303.8789408068</v>
       </c>
       <c r="N6" t="n">
-        <v>361492.4472328793</v>
+        <v>361492.4472328795</v>
       </c>
       <c r="O6" t="n">
         <v>331188.3638307661</v>
       </c>
       <c r="P6" t="n">
-        <v>361492.4472328796</v>
+        <v>361492.4472328795</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392247</v>
+        <v>29.55587296392024</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>1001.000149807878</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
@@ -26826,10 +26826,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.09503236595075</v>
+        <v>9.095032365950821</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.88010425264179</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950757</v>
+        <v>9.095032365950829</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264175</v>
+        <v>37.88010425264176</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296392247</v>
+        <v>29.55587296392024</v>
       </c>
       <c r="E3" t="n">
-        <v>1060.220827629376</v>
+        <v>1060.220827629378</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3.139307860380569e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.808343784370906e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.5986944055849</v>
+        <v>169.5986944055853</v>
       </c>
       <c r="J4" t="n">
-        <v>13.33631140073646</v>
+        <v>13.33631140073692</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.09503236595075</v>
+        <v>9.095032365950821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264179</v>
+        <v>37.88010425264174</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.2579615771068</v>
+        <v>338.2579615771069</v>
       </c>
       <c r="I8" t="n">
-        <v>205.895174826922</v>
+        <v>205.8951748269224</v>
       </c>
       <c r="J8" t="n">
-        <v>1.864795794927231</v>
+        <v>1.864795794927993</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>142.4054431468984</v>
+        <v>142.405443146899</v>
       </c>
       <c r="S8" t="n">
-        <v>206.3125139875905</v>
+        <v>206.3125139875907</v>
       </c>
       <c r="T8" t="n">
         <v>222.5757256087562</v>
@@ -27947,10 +27947,10 @@
         <v>137.2799441534392</v>
       </c>
       <c r="H9" t="n">
-        <v>111.6214628000195</v>
+        <v>111.6214628000196</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20782527814346</v>
+        <v>87.20782527814363</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700836</v>
+        <v>96.21073096700866</v>
       </c>
       <c r="S9" t="n">
-        <v>170.502330330232</v>
+        <v>170.5023303302322</v>
       </c>
       <c r="T9" t="n">
         <v>199.9084848528042</v>
@@ -28029,13 +28029,13 @@
         <v>161.7533094950016</v>
       </c>
       <c r="I10" t="n">
-        <v>153.8476744721</v>
+        <v>153.8476744721001</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502646</v>
+        <v>89.59104857502675</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868729</v>
+        <v>16.07729417868776</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.6991064341421</v>
+        <v>81.69910643414244</v>
       </c>
       <c r="R10" t="n">
-        <v>174.8969430545537</v>
+        <v>174.8969430545539</v>
       </c>
       <c r="S10" t="n">
-        <v>223.0877683898929</v>
+        <v>223.087768389893</v>
       </c>
       <c r="T10" t="n">
         <v>227.717863849707</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292587</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="K19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="M19" t="n">
-        <v>11.41914327174328</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>11.41914327174084</v>
       </c>
       <c r="O19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="P19" t="n">
-        <v>50.67196213887669</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887669</v>
+        <v>50.67196213887682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="J22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="K22" t="n">
-        <v>50.67196213887671</v>
+        <v>11.41914327174047</v>
       </c>
       <c r="L22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="M22" t="n">
-        <v>50.67196213887671</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.41914327174189</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.41914327174037</v>
       </c>
       <c r="K25" t="n">
-        <v>11.41914327174334</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="M25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="N25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="O25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="P25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887671</v>
+        <v>50.67196213887683</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
         <v>46.97513661859261</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859375</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1188175797544621</v>
+        <v>0.1188175797544531</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660385</v>
+        <v>1.216840538660293</v>
       </c>
       <c r="I8" t="n">
-        <v>4.580714743483905</v>
+        <v>4.580714743483559</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968529</v>
+        <v>10.08449355968452</v>
       </c>
       <c r="K8" t="n">
-        <v>15.11404171069167</v>
+        <v>15.11404171069053</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710229</v>
+        <v>18.75030521710088</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735106071</v>
+        <v>20.86332735105913</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953808</v>
+        <v>21.20091779953647</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085464</v>
+        <v>20.01942549085313</v>
       </c>
       <c r="P8" t="n">
-        <v>17.08611649066636</v>
+        <v>17.08611649066507</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.83096191570968</v>
+        <v>12.83096191570871</v>
       </c>
       <c r="R8" t="n">
-        <v>7.463674794251237</v>
+        <v>7.463674794250672</v>
       </c>
       <c r="S8" t="n">
-        <v>2.707555598654808</v>
+        <v>2.707555598654603</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751581</v>
+        <v>0.5201239553751188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356967</v>
+        <v>0.009505406380356247</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06357300977145589</v>
+        <v>0.06357300977145108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364769556</v>
+        <v>0.6139814364769092</v>
       </c>
       <c r="I9" t="n">
-        <v>2.188807573271617</v>
+        <v>2.188807573271452</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278451453</v>
+        <v>6.006255278450999</v>
       </c>
       <c r="K9" t="n">
-        <v>10.265646933139</v>
+        <v>10.26564693313822</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112247</v>
+        <v>13.80342916112143</v>
       </c>
       <c r="M9" t="n">
-        <v>16.10795076533774</v>
+        <v>16.10795076533653</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139282</v>
+        <v>16.53428029139157</v>
       </c>
       <c r="O9" t="n">
-        <v>15.12563623277266</v>
+        <v>15.12563623277152</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644582</v>
+        <v>12.1396565764449</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.1150389315283</v>
+        <v>8.115038931527685</v>
       </c>
       <c r="R9" t="n">
-        <v>3.94710318563478</v>
+        <v>3.947103185634481</v>
       </c>
       <c r="S9" t="n">
-        <v>1.18084077360577</v>
+        <v>1.180840773605681</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2562438420174032</v>
+        <v>0.2562438420173839</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004182434853385257</v>
+        <v>0.004182434853384941</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0532974758365815</v>
+        <v>0.05329747583657747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4738630124379704</v>
+        <v>0.4738630124379346</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158288</v>
+        <v>1.602800455158167</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541646312</v>
+        <v>3.768131541646027</v>
       </c>
       <c r="K10" t="n">
-        <v>6.192197647195559</v>
+        <v>6.192197647195091</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376855</v>
+        <v>7.923881089376255</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637952</v>
+        <v>8.354621598637321</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519791</v>
+        <v>8.155967370519175</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246995</v>
+        <v>7.533355948246426</v>
       </c>
       <c r="P10" t="n">
-        <v>6.446087441180727</v>
+        <v>6.44608744118024</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817552293</v>
+        <v>4.462936817551956</v>
       </c>
       <c r="R10" t="n">
-        <v>2.396448322615746</v>
+        <v>2.396448322615564</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9288296470793337</v>
+        <v>0.9288296470792634</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744845</v>
+        <v>0.2277255785744673</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002907135045631721</v>
+        <v>0.002907135045631502</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599212</v>
+        <v>87.15534638599226</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172454</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L13" t="n">
-        <v>361.3343019431241</v>
+        <v>361.3343019431242</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108195</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302278</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.25037875194292</v>
+        <v>96.25037875194302</v>
       </c>
       <c r="K19" t="n">
-        <v>256.7196216831962</v>
+        <v>256.7196216831964</v>
       </c>
       <c r="L19" t="n">
-        <v>370.4293343090748</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M19" t="n">
-        <v>359.0525226652271</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>356.2760894392809</v>
       </c>
       <c r="O19" t="n">
-        <v>353.0250923615165</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P19" t="n">
-        <v>285.6290332839872</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.0662006767703</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.25037875194296</v>
+        <v>96.25037875194303</v>
       </c>
       <c r="K22" t="n">
-        <v>256.7196216831964</v>
+        <v>217.46680281606</v>
       </c>
       <c r="L22" t="n">
         <v>370.4293343090749</v>
       </c>
       <c r="M22" t="n">
-        <v>398.3053415323606</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>395.5289083064168</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P22" t="n">
         <v>285.6290332839872</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.81338180963557</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>742.24838159734</v>
       </c>
       <c r="P23" t="n">
-        <v>623.176265635517</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>56.99755988480657</v>
       </c>
       <c r="K25" t="n">
-        <v>217.4668028160629</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>370.4293343090748</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M25" t="n">
-        <v>398.3053415323605</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N25" t="n">
-        <v>395.5289083064167</v>
+        <v>395.5289083064168</v>
       </c>
       <c r="O25" t="n">
-        <v>353.0250923615164</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P25" t="n">
-        <v>285.6290332839871</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.0662006767703</v>
+        <v>129.0662006767704</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>749.0240763241618</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237184</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>290.8164461252073</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776185</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794536</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,13 +37306,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>377.2134278768883</v>
+        <v>409.0657468192705</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37558,10 +37558,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>427.4180709954111</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5312714465578</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37795,13 +37795,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465568</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>122.1333842488644</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120775</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237189</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38035,7 +38035,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>418.5312714465568</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
